--- a/Excel/DialogConfig.xlsx
+++ b/Excel/DialogConfig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -73,6 +73,18 @@
   </si>
   <si>
     <t>说话角色id（-1表示主角）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示时长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShowTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -451,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.95" x14ac:dyDescent="0.35"/>
@@ -468,12 +480,12 @@
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
@@ -486,8 +498,11 @@
       <c r="F3" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G3" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
@@ -500,8 +515,11 @@
       <c r="F4" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G4" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C5" s="2" t="s">
         <v>0</v>
       </c>
@@ -514,8 +532,11 @@
       <c r="F5" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="G5" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C6" s="3">
         <v>2001</v>
       </c>
@@ -528,13 +549,16 @@
       <c r="F6" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G6" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C7" s="4">
         <v>2002</v>
       </c>
       <c r="D7" s="4">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="E7" s="4">
         <v>1001</v>
@@ -542,8 +566,11 @@
       <c r="F7" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G7" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C8" s="4">
         <v>2004</v>
       </c>
@@ -556,50 +583,53 @@
       <c r="F8" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G8" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>

--- a/Excel/DialogConfig.xlsx
+++ b/Excel/DialogConfig.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4D53898-C3DB-47AD-871D-1C33FD366002}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="245" yWindow="109" windowWidth="14808" windowHeight="8015"/>
+    <workbookView xWindow="-120" yWindow="480" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dialog" sheetId="1" r:id="rId1"/>
@@ -14,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -40,14 +41,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>哎</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>团子放学回家啦？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Text</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -60,10 +53,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>对呀，回家啦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>RoleId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -85,13 +74,57 @@
   </si>
   <si>
     <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  囝儿下学啦？  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  嗯呢，叔担水呢？  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  是啊，刚浇地回来  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  记得早些归家！莫让家里人担忧  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  好！叔也早些归呀！  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  你好  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  卧槽！QAQ，是谁！  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  我是一棵树  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  卧槽！树会说话？！  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  我也很无奈啊，策划闲着无聊想让我说话  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  行吧，那你在这站着吧  </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -149,15 +182,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -252,6 +284,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -287,6 +336,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -462,244 +528,267 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.95" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="25.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.125" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col min="3" max="3" width="12.625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="22.625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="25.125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15.125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="9" style="2"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C3" s="2" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="2" t="s">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="2" t="s">
+    </row>
+    <row r="6" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C6" s="2">
+        <v>2001</v>
+      </c>
+      <c r="D6" s="2">
+        <v>2002</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1001</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="2" t="s">
+      <c r="G6" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C7" s="2">
+        <v>2002</v>
+      </c>
+      <c r="D7" s="2">
+        <v>2003</v>
+      </c>
+      <c r="E7" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C5" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="2" t="s">
+      <c r="G7" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C8" s="2">
+        <v>2003</v>
+      </c>
+      <c r="D8" s="2">
+        <v>2004</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1001</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C6" s="3">
-        <v>2001</v>
-      </c>
-      <c r="D6" s="3">
-        <v>2002</v>
-      </c>
-      <c r="E6" s="3">
+      <c r="G8" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C9" s="2">
+        <v>2004</v>
+      </c>
+      <c r="D9" s="2">
+        <v>2005</v>
+      </c>
+      <c r="E9" s="2">
         <v>1001</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C7" s="4">
-        <v>2002</v>
-      </c>
-      <c r="D7" s="4">
-        <v>2004</v>
-      </c>
-      <c r="E7" s="4">
-        <v>1001</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C8" s="4">
-        <v>2004</v>
-      </c>
-      <c r="D8" s="4">
+      <c r="F9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C10" s="2">
+        <v>2005</v>
+      </c>
+      <c r="D10" s="2">
         <v>-1</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E10" s="2">
         <v>-1</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-    </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-    </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-    </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-    </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-    </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-    </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-    </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-    </row>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-    </row>
-    <row r="25" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-    </row>
-    <row r="26" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-    </row>
-    <row r="27" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
+      <c r="F10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C11" s="2">
+        <v>2006</v>
+      </c>
+      <c r="D11" s="2">
+        <v>2007</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1002</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C12" s="2">
+        <v>2007</v>
+      </c>
+      <c r="D12" s="2">
+        <v>2008</v>
+      </c>
+      <c r="E12" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C13" s="2">
+        <v>2008</v>
+      </c>
+      <c r="D13" s="2">
+        <v>2009</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1002</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C14" s="2">
+        <v>2009</v>
+      </c>
+      <c r="D14" s="2">
+        <v>2010</v>
+      </c>
+      <c r="E14" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C15" s="2">
+        <v>2010</v>
+      </c>
+      <c r="D15" s="2">
+        <v>2011</v>
+      </c>
+      <c r="E15" s="2">
+        <v>1002</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C16" s="2">
+        <v>2011</v>
+      </c>
+      <c r="D16" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E16" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" s="2">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Excel/DialogConfig.xlsx
+++ b/Excel/DialogConfig.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4D53898-C3DB-47AD-871D-1C33FD366002}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10074A54-802B-48A6-84C1-9DC9B8455D37}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="480" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -89,14 +89,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">  记得早些归家！莫让家里人担忧  </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  好！叔也早些归呀！  </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">  你好  </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -118,6 +110,14 @@
   </si>
   <si>
     <t xml:space="preserve">  行吧，那你在这站着吧  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  哇，是嘛，我看看！  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  囝儿你看，墙角长了棵小苗哦  </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -529,10 +529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -542,17 +542,17 @@
     <col min="3" max="3" width="12.625" style="2" customWidth="1"/>
     <col min="4" max="4" width="22.625" style="2" customWidth="1"/>
     <col min="5" max="5" width="25.125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="15.125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="80.375" style="2" customWidth="1"/>
     <col min="7" max="7" width="9" style="2"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
@@ -569,7 +569,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
@@ -586,7 +586,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C5" s="3" t="s">
         <v>0</v>
       </c>
@@ -603,7 +603,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C6" s="2">
         <v>2001</v>
       </c>
@@ -620,7 +620,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C7" s="2">
         <v>2002</v>
       </c>
@@ -637,7 +637,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C8" s="2">
         <v>2003</v>
       </c>
@@ -654,7 +654,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C9" s="2">
         <v>2004</v>
       </c>
@@ -665,13 +665,14 @@
         <v>1001</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="G9" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C10" s="2">
         <v>2005</v>
       </c>
@@ -682,13 +683,13 @@
         <v>-1</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="G10" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C11" s="2">
         <v>2006</v>
       </c>
@@ -699,13 +700,13 @@
         <v>1002</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G11" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C12" s="2">
         <v>2007</v>
       </c>
@@ -716,13 +717,13 @@
         <v>-1</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G12" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C13" s="2">
         <v>2008</v>
       </c>
@@ -733,13 +734,13 @@
         <v>1002</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G13" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C14" s="2">
         <v>2009</v>
       </c>
@@ -750,13 +751,13 @@
         <v>-1</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G14" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C15" s="2">
         <v>2010</v>
       </c>
@@ -767,13 +768,13 @@
         <v>1002</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G15" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C16" s="2">
         <v>2011</v>
       </c>
@@ -784,7 +785,7 @@
         <v>-1</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G16" s="2">
         <v>3</v>

--- a/Excel/DialogConfig.xlsx
+++ b/Excel/DialogConfig.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10074A54-802B-48A6-84C1-9DC9B8455D37}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AED5EE4-D547-4DF6-B2BA-574DA138E776}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="480" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -89,35 +89,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">  你好  </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  卧槽！QAQ，是谁！  </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  我是一棵树  </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  卧槽！树会说话？！  </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  我也很无奈啊，策划闲着无聊想让我说话  </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  行吧，那你在这站着吧  </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">  哇，是嘛，我看看！  </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">  囝儿你看，墙角长了棵小苗哦  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  小咪乖，太阳晒的舒服不舒服？  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  喵呜~~  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  想不想吃小鱼干嘞？  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  喵呜喵呜~~  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  晚上回去我给你带喔  </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -532,7 +528,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -665,7 +661,7 @@
         <v>1001</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G9" s="2">
         <v>3</v>
@@ -683,41 +679,24 @@
         <v>-1</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="G10" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C11" s="2">
-        <v>2006</v>
-      </c>
-      <c r="D11" s="2">
-        <v>2007</v>
-      </c>
-      <c r="E11" s="2">
-        <v>1002</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C12" s="2">
-        <v>2007</v>
+        <v>2010</v>
       </c>
       <c r="D12" s="2">
-        <v>2008</v>
+        <v>2011</v>
       </c>
       <c r="E12" s="2">
         <v>-1</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G12" s="2">
         <v>3</v>
@@ -725,16 +704,16 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C13" s="2">
-        <v>2008</v>
+        <v>2011</v>
       </c>
       <c r="D13" s="2">
-        <v>2009</v>
+        <v>2012</v>
       </c>
       <c r="E13" s="2">
         <v>1002</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G13" s="2">
         <v>3</v>
@@ -742,16 +721,16 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C14" s="2">
-        <v>2009</v>
+        <v>2012</v>
       </c>
       <c r="D14" s="2">
-        <v>2010</v>
+        <v>2013</v>
       </c>
       <c r="E14" s="2">
         <v>-1</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G14" s="2">
         <v>3</v>
@@ -759,16 +738,16 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C15" s="2">
-        <v>2010</v>
+        <v>2013</v>
       </c>
       <c r="D15" s="2">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="E15" s="2">
         <v>1002</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G15" s="2">
         <v>3</v>
@@ -776,7 +755,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C16" s="2">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="D16" s="2">
         <v>-1</v>
@@ -785,7 +764,7 @@
         <v>-1</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G16" s="2">
         <v>3</v>

--- a/Excel/DialogConfig.xlsx
+++ b/Excel/DialogConfig.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AED5EE4-D547-4DF6-B2BA-574DA138E776}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F178FB36-C5F6-4923-B9EA-540DDCF04F77}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="480" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -77,43 +77,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">  囝儿下学啦？  </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  嗯呢，叔担水呢？  </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  是啊，刚浇地回来  </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  哇，是嘛，我看看！  </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  囝儿你看，墙角长了棵小苗哦  </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  小咪乖，太阳晒的舒服不舒服？  </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  喵呜~~  </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  想不想吃小鱼干嘞？  </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  喵呜喵呜~~  </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  晚上回去我给你带喔  </t>
+    <t xml:space="preserve">小咪乖，太阳晒的舒服不舒服？  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喵呜~~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>想不想吃小鱼干嘞？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喵呜喵呜~~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上回去我给你带喔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哇，是嘛，我看看！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>囝儿你看，墙角长了棵小苗哦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是啊，刚浇地回来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嗯呢，叔担水呢？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>囝儿下学啦？</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -528,7 +528,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -610,7 +610,7 @@
         <v>1001</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="G6" s="2">
         <v>3</v>
@@ -627,7 +627,7 @@
         <v>-1</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G7" s="2">
         <v>3</v>
@@ -644,7 +644,7 @@
         <v>1001</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G8" s="2">
         <v>3</v>
@@ -661,7 +661,7 @@
         <v>1001</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G9" s="2">
         <v>3</v>
@@ -679,7 +679,7 @@
         <v>-1</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G10" s="2">
         <v>3</v>
@@ -696,7 +696,7 @@
         <v>-1</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G12" s="2">
         <v>3</v>
@@ -713,7 +713,7 @@
         <v>1002</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="G13" s="2">
         <v>3</v>
@@ -730,7 +730,7 @@
         <v>-1</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G14" s="2">
         <v>3</v>
@@ -747,7 +747,7 @@
         <v>1002</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="G15" s="2">
         <v>3</v>
@@ -764,7 +764,7 @@
         <v>-1</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G16" s="2">
         <v>3</v>

--- a/Excel/DialogConfig.xlsx
+++ b/Excel/DialogConfig.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F178FB36-C5F6-4923-B9EA-540DDCF04F77}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9461E628-1CA0-42F8-9254-6BE5BC8C50A3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="480" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -77,10 +77,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">小咪乖，太阳晒的舒服不舒服？  </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>喵呜~~</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -114,6 +110,10 @@
   </si>
   <si>
     <t>囝儿下学啦？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小咪乖，太阳晒的舒服不舒服？</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -528,7 +528,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -610,7 +610,7 @@
         <v>1001</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G6" s="2">
         <v>3</v>
@@ -627,7 +627,7 @@
         <v>-1</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G7" s="2">
         <v>3</v>
@@ -644,7 +644,7 @@
         <v>1001</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G8" s="2">
         <v>3</v>
@@ -661,7 +661,7 @@
         <v>1001</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G9" s="2">
         <v>3</v>
@@ -679,7 +679,7 @@
         <v>-1</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G10" s="2">
         <v>3</v>
@@ -696,7 +696,7 @@
         <v>-1</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="G12" s="2">
         <v>3</v>
@@ -713,7 +713,7 @@
         <v>1002</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G13" s="2">
         <v>3</v>
@@ -730,7 +730,7 @@
         <v>-1</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G14" s="2">
         <v>3</v>
@@ -747,7 +747,7 @@
         <v>1002</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G15" s="2">
         <v>3</v>
@@ -764,7 +764,7 @@
         <v>-1</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G16" s="2">
         <v>3</v>

--- a/Excel/DialogConfig.xlsx
+++ b/Excel/DialogConfig.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9461E628-1CA0-42F8-9254-6BE5BC8C50A3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9638781-6E61-45D2-9F74-4A7584A6B2C5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="480" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -114,6 +114,22 @@
   </si>
   <si>
     <t>小咪乖，太阳晒的舒服不舒服？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿翁，阿翁，你斗笠上有只麻雀唉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘘~~ 莫要惊了鱼儿哟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（轻声）这样能钓到鱼嘛？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钓鱼钓鱼，一心一意</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -525,10 +541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -770,6 +786,74 @@
         <v>3</v>
       </c>
     </row>
+    <row r="18" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C18" s="2">
+        <v>2020</v>
+      </c>
+      <c r="D18" s="2">
+        <v>2021</v>
+      </c>
+      <c r="E18" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G18" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C19" s="2">
+        <v>2021</v>
+      </c>
+      <c r="D19" s="2">
+        <v>2022</v>
+      </c>
+      <c r="E19" s="2">
+        <v>1003</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C20" s="2">
+        <v>2022</v>
+      </c>
+      <c r="D20" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E20" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G20" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C21" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D21" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E21" s="2">
+        <v>1003</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G21" s="2">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/DialogConfig.xlsx
+++ b/Excel/DialogConfig.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9638781-6E61-45D2-9F74-4A7584A6B2C5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AD22F5D-F59B-42D9-BBE9-4CF0E34977D7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="480" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -130,6 +130,30 @@
   </si>
   <si>
     <t>钓鱼钓鱼，一心一意</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奇怪，这里怎么会有一只小猪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（哼~哼~）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小猪小猪，你是不是跑丢了呀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我送你回家好不好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哎你别跑啊，回来~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（看来得有些什么吃的诱引它才行）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -541,10 +565,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -854,6 +878,125 @@
         <v>3</v>
       </c>
     </row>
+    <row r="23" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C23" s="2">
+        <v>2030</v>
+      </c>
+      <c r="D23" s="2">
+        <v>2031</v>
+      </c>
+      <c r="E23" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G23" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C24" s="2">
+        <v>2031</v>
+      </c>
+      <c r="D24" s="2">
+        <v>2032</v>
+      </c>
+      <c r="E24" s="2">
+        <v>1004</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C25" s="2">
+        <v>2032</v>
+      </c>
+      <c r="D25" s="2">
+        <v>2033</v>
+      </c>
+      <c r="E25" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G25" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C26" s="2">
+        <v>2033</v>
+      </c>
+      <c r="D26" s="2">
+        <v>2034</v>
+      </c>
+      <c r="E26" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G26" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C27" s="2">
+        <v>2034</v>
+      </c>
+      <c r="D27" s="2">
+        <v>2035</v>
+      </c>
+      <c r="E27" s="2">
+        <v>1004</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C28" s="2">
+        <v>2035</v>
+      </c>
+      <c r="D28" s="2">
+        <v>2036</v>
+      </c>
+      <c r="E28" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G28" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C29" s="2">
+        <v>2036</v>
+      </c>
+      <c r="D29" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E29" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G29" s="2">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/DialogConfig.xlsx
+++ b/Excel/DialogConfig.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AD22F5D-F59B-42D9-BBE9-4CF0E34977D7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E868F54B-DAF5-4300-ADFB-3034F297F476}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="480" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="84">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -154,6 +154,202 @@
   </si>
   <si>
     <t>（看来得有些什么吃的诱引它才行）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老李，看你这步棋要咋走嘛。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爷爷我觉得应该这么……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>去去去，小孩子懂什么</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>净瞎说，羊角士别不住马脚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老李你得别他马脚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>观棋不语！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你们俩不能再支招了啊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哎哎哎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用羊角士顶他马啊！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你看看中午头收的这毛豆，又大又圆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我看看，啊呀，确实是好啊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你家老倌耕地那是真有一手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我家那个才不行呢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还是张姐他们家老倌能干</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>咦，我家那个才懒呢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还不是都得指望着咱，哈哈哈哈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（小声哼唱）记得草桥两结拜，同窗共读三长载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>叔唱的真棒！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是囝儿放学啦，快回家吧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你爹娘等你吃饭呢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好的叔！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汪、汪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大黄，除了汪、汪你能不能说点别的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汪、汪、汪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好！个里老生唱的真好！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（唱腔）记得草桥两结拜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（唱腔）同窗共读三长载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>叔干活呢？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是嘞，去年收成不太好，今年得勒紧裤腰带喽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我来帮帮忙吧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>囝囝真懂事，叔不累</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快回家吧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>囝囝下学啦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对呀，给我家小撮老洗布头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有空来姨家玩，姨给你摘桃吃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对，在村里转着耍耍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姨在洗衣服吗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好好好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>都说冰糖葫芦儿酸，酸里面它裹着甜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>那它到底是酸还是甜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酸酸甜甜，又酸又甜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃的小娃笑开颜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大叔我要一串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大叔大叔，我也要</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大黄大黄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你在门外等主人回来吗？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大黄，我准备回家啦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>明天找你玩，好不好</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -565,10 +761,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:I87"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I62" sqref="I62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -997,6 +1193,856 @@
         <v>3</v>
       </c>
     </row>
+    <row r="31" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C31" s="2">
+        <v>2040</v>
+      </c>
+      <c r="D31" s="2">
+        <v>2041</v>
+      </c>
+      <c r="E31" s="2">
+        <v>1006</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G31" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C32" s="2">
+        <v>2041</v>
+      </c>
+      <c r="D32" s="2">
+        <v>2042</v>
+      </c>
+      <c r="E32" s="2">
+        <v>1007</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G32" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C33" s="2">
+        <v>2042</v>
+      </c>
+      <c r="D33" s="2">
+        <v>2043</v>
+      </c>
+      <c r="E33" s="2">
+        <v>1008</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G33" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C34" s="2">
+        <v>2043</v>
+      </c>
+      <c r="D34" s="2">
+        <v>2044</v>
+      </c>
+      <c r="E34" s="2">
+        <v>1008</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G34" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C35" s="2">
+        <v>2044</v>
+      </c>
+      <c r="D35" s="2">
+        <v>2045</v>
+      </c>
+      <c r="E35" s="2">
+        <v>1006</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G35" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C36" s="2">
+        <v>2045</v>
+      </c>
+      <c r="D36" s="2">
+        <v>2046</v>
+      </c>
+      <c r="E36" s="2">
+        <v>1006</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G36" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C37" s="2">
+        <v>2046</v>
+      </c>
+      <c r="D37" s="2">
+        <v>2047</v>
+      </c>
+      <c r="E37" s="2">
+        <v>1006</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G37" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C38" s="2">
+        <v>2047</v>
+      </c>
+      <c r="D38" s="2">
+        <v>2048</v>
+      </c>
+      <c r="E38" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G38" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C39" s="2">
+        <v>2048</v>
+      </c>
+      <c r="D39" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E39" s="2">
+        <v>1007</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G39" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C41" s="2">
+        <v>2050</v>
+      </c>
+      <c r="D41" s="2">
+        <v>2051</v>
+      </c>
+      <c r="E41" s="2">
+        <v>1009</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G41" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C42" s="2">
+        <v>2051</v>
+      </c>
+      <c r="D42" s="2">
+        <v>2052</v>
+      </c>
+      <c r="E42" s="2">
+        <v>1010</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G42" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C43" s="2">
+        <v>2052</v>
+      </c>
+      <c r="D43" s="2">
+        <v>2053</v>
+      </c>
+      <c r="E43" s="2">
+        <v>1010</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G43" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C44" s="2">
+        <v>2053</v>
+      </c>
+      <c r="D44" s="2">
+        <v>2054</v>
+      </c>
+      <c r="E44" s="2">
+        <v>1009</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G44" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C45" s="2">
+        <v>2054</v>
+      </c>
+      <c r="D45" s="2">
+        <v>2055</v>
+      </c>
+      <c r="E45" s="2">
+        <v>1009</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G45" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C46" s="2">
+        <v>2055</v>
+      </c>
+      <c r="D46" s="2">
+        <v>2056</v>
+      </c>
+      <c r="E46" s="2">
+        <v>1011</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G46" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C47" s="2">
+        <v>2056</v>
+      </c>
+      <c r="D47" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E47" s="2">
+        <v>1011</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G47" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C49" s="2">
+        <v>2060</v>
+      </c>
+      <c r="D49" s="2">
+        <v>2061</v>
+      </c>
+      <c r="E49" s="2">
+        <v>1012</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G49" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C50" s="2">
+        <v>2061</v>
+      </c>
+      <c r="D50" s="2">
+        <v>2062</v>
+      </c>
+      <c r="E50" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G50" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C51" s="2">
+        <v>2062</v>
+      </c>
+      <c r="D51" s="2">
+        <v>2063</v>
+      </c>
+      <c r="E51" s="2">
+        <v>1012</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G51" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C52" s="2">
+        <v>2063</v>
+      </c>
+      <c r="D52" s="2">
+        <v>2064</v>
+      </c>
+      <c r="E52" s="2">
+        <v>1012</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G52" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C53" s="2">
+        <v>2064</v>
+      </c>
+      <c r="D53" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E53" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G53" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C55" s="2">
+        <v>2070</v>
+      </c>
+      <c r="D55" s="2">
+        <v>2071</v>
+      </c>
+      <c r="E55" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G55" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C56" s="2">
+        <v>2071</v>
+      </c>
+      <c r="D56" s="2">
+        <v>2072</v>
+      </c>
+      <c r="E56" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G56" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C57" s="2">
+        <v>2072</v>
+      </c>
+      <c r="D57" s="2">
+        <v>2073</v>
+      </c>
+      <c r="E57" s="2">
+        <v>1014</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G57" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C58" s="2">
+        <v>2073</v>
+      </c>
+      <c r="D58" s="2">
+        <v>2074</v>
+      </c>
+      <c r="E58" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G58" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C59" s="2">
+        <v>2074</v>
+      </c>
+      <c r="D59" s="2">
+        <v>2075</v>
+      </c>
+      <c r="E59" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G59" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C60" s="2">
+        <v>2075</v>
+      </c>
+      <c r="D60" s="2">
+        <v>2076</v>
+      </c>
+      <c r="E60" s="2">
+        <v>1014</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G60" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C61" s="2">
+        <v>2076</v>
+      </c>
+      <c r="D61" s="2">
+        <v>2077</v>
+      </c>
+      <c r="E61" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G61" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C62" s="2">
+        <v>2077</v>
+      </c>
+      <c r="D62" s="2">
+        <v>2078</v>
+      </c>
+      <c r="E62" s="2">
+        <v>1014</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G62" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C63" s="2">
+        <v>2078</v>
+      </c>
+      <c r="D63" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E63" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G63" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C65" s="2">
+        <v>2080</v>
+      </c>
+      <c r="D65" s="2">
+        <v>2081</v>
+      </c>
+      <c r="E65" s="2">
+        <v>1013</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G65" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C66" s="2">
+        <v>2081</v>
+      </c>
+      <c r="D66" s="2">
+        <v>2082</v>
+      </c>
+      <c r="E66" s="2">
+        <v>1013</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G66" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C67" s="2">
+        <v>2082</v>
+      </c>
+      <c r="D67" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E67" s="2">
+        <v>1013</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G67" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C69" s="2">
+        <v>2090</v>
+      </c>
+      <c r="D69" s="2">
+        <v>2091</v>
+      </c>
+      <c r="E69" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G69" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C70" s="2">
+        <v>2091</v>
+      </c>
+      <c r="D70" s="2">
+        <v>2092</v>
+      </c>
+      <c r="E70" s="2">
+        <v>1015</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G70" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C71" s="2">
+        <v>2092</v>
+      </c>
+      <c r="D71" s="2">
+        <v>2093</v>
+      </c>
+      <c r="E71" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G71" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C72" s="2">
+        <v>2093</v>
+      </c>
+      <c r="D72" s="2">
+        <v>2094</v>
+      </c>
+      <c r="E72" s="2">
+        <v>1015</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G72" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C73" s="2">
+        <v>2094</v>
+      </c>
+      <c r="D73" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E73" s="2">
+        <v>1015</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G73" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C75" s="2">
+        <v>2100</v>
+      </c>
+      <c r="D75" s="2">
+        <v>2101</v>
+      </c>
+      <c r="E75" s="2">
+        <v>1016</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G75" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C76" s="2">
+        <v>2101</v>
+      </c>
+      <c r="D76" s="2">
+        <v>2102</v>
+      </c>
+      <c r="E76" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G76" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C77" s="2">
+        <v>2102</v>
+      </c>
+      <c r="D77" s="2">
+        <v>2103</v>
+      </c>
+      <c r="E77" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G77" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C78" s="2">
+        <v>2103</v>
+      </c>
+      <c r="D78" s="2">
+        <v>2104</v>
+      </c>
+      <c r="E78" s="2">
+        <v>1016</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G78" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C79" s="2">
+        <v>2104</v>
+      </c>
+      <c r="D79" s="2">
+        <v>2105</v>
+      </c>
+      <c r="E79" s="2">
+        <v>1016</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G79" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C80" s="2">
+        <v>2105</v>
+      </c>
+      <c r="D80" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E80" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G80" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C82" s="2">
+        <v>2110</v>
+      </c>
+      <c r="D82" s="2">
+        <v>2111</v>
+      </c>
+      <c r="E82" s="2">
+        <v>1017</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G82" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C83" s="2">
+        <v>2111</v>
+      </c>
+      <c r="D83" s="2">
+        <v>2112</v>
+      </c>
+      <c r="E83" s="2">
+        <v>1018</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G83" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C84" s="2">
+        <v>2112</v>
+      </c>
+      <c r="D84" s="2">
+        <v>2113</v>
+      </c>
+      <c r="E84" s="2">
+        <v>1017</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G84" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C85" s="2">
+        <v>2113</v>
+      </c>
+      <c r="D85" s="2">
+        <v>2114</v>
+      </c>
+      <c r="E85" s="2">
+        <v>1017</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G85" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C86" s="2">
+        <v>2114</v>
+      </c>
+      <c r="D86" s="2">
+        <v>2115</v>
+      </c>
+      <c r="E86" s="2">
+        <v>1019</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G86" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C87" s="2">
+        <v>2115</v>
+      </c>
+      <c r="D87" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E87" s="2">
+        <v>1018</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G87" s="2">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/DialogConfig.xlsx
+++ b/Excel/DialogConfig.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E868F54B-DAF5-4300-ADFB-3034F297F476}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FEC0152-B1FD-4AC4-967E-04E7F3518028}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="480" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="87">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -350,6 +350,18 @@
   </si>
   <si>
     <t>明天找你玩，好不好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来来小猪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我来送你回家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哼~哼~</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -761,10 +773,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I87"/>
+  <dimension ref="A1:I91"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I62" sqref="I62"/>
+      <selection activeCell="D90" sqref="D90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -2043,6 +2055,57 @@
         <v>3</v>
       </c>
     </row>
+    <row r="89" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C89" s="2">
+        <v>2120</v>
+      </c>
+      <c r="D89" s="2">
+        <v>2121</v>
+      </c>
+      <c r="E89" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G89" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C90" s="2">
+        <v>2121</v>
+      </c>
+      <c r="D90" s="2">
+        <v>2122</v>
+      </c>
+      <c r="E90" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G90" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C91" s="2">
+        <v>2122</v>
+      </c>
+      <c r="D91" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E91" s="2">
+        <v>1020</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G91" s="2">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/DialogConfig.xlsx
+++ b/Excel/DialogConfig.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FEC0152-B1FD-4AC4-967E-04E7F3518028}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76764253-11FD-458F-BA66-1BBFE8FC9D03}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="480" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="88">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -362,6 +362,10 @@
   </si>
   <si>
     <t>哼~哼~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（小猪进入跟随状态）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -773,10 +777,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I91"/>
+  <dimension ref="A1:I92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D90" sqref="D90"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C93" sqref="C93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -2094,7 +2098,7 @@
         <v>2122</v>
       </c>
       <c r="D91" s="2">
-        <v>-1</v>
+        <v>2123</v>
       </c>
       <c r="E91" s="2">
         <v>1020</v>
@@ -2103,6 +2107,23 @@
         <v>86</v>
       </c>
       <c r="G91" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C92" s="2">
+        <v>2123</v>
+      </c>
+      <c r="D92" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E92" s="2">
+        <v>1020</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G92" s="2">
         <v>3</v>
       </c>
     </row>

--- a/Excel/DialogConfig.xlsx
+++ b/Excel/DialogConfig.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76764253-11FD-458F-BA66-1BBFE8FC9D03}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97B9D594-41C9-4A9F-B244-55A5B2A1F1FE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="480" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -245,10 +245,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>大黄，除了汪、汪你能不能说点别的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>汪、汪、汪</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -269,10 +265,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>叔干活呢？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>是嘞，去年收成不太好，今年得勒紧裤腰带喽</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -281,10 +273,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>囝囝真懂事，叔不累</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>快回家吧</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -337,18 +325,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>大黄大黄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>你在门外等主人回来吗？</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>大黄，我准备回家啦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>明天找你玩，好不好</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -366,6 +346,26 @@
   </si>
   <si>
     <t>（小猪进入跟随状态）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小白小白</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小白，我准备回家啦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小白，除了汪、汪你能不能说点别的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>婶干活呢？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>囝囝真懂事，婶不累</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -779,8 +779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C93" sqref="C93"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F77" sqref="F77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -1577,7 +1577,7 @@
         <v>-1</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G55" s="2">
         <v>3</v>
@@ -1594,7 +1594,7 @@
         <v>-1</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G56" s="2">
         <v>3</v>
@@ -1628,7 +1628,7 @@
         <v>-1</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G58" s="2">
         <v>3</v>
@@ -1645,7 +1645,7 @@
         <v>-1</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="G59" s="2">
         <v>3</v>
@@ -1679,7 +1679,7 @@
         <v>-1</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="G61" s="2">
         <v>3</v>
@@ -1696,7 +1696,7 @@
         <v>1014</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G62" s="2">
         <v>3</v>
@@ -1713,7 +1713,7 @@
         <v>-1</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G63" s="2">
         <v>3</v>
@@ -1730,7 +1730,7 @@
         <v>1013</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G65" s="2">
         <v>3</v>
@@ -1747,7 +1747,7 @@
         <v>1013</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G66" s="2">
         <v>3</v>
@@ -1764,7 +1764,7 @@
         <v>1013</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G67" s="2">
         <v>3</v>
@@ -1781,7 +1781,7 @@
         <v>-1</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="G69" s="2">
         <v>3</v>
@@ -1798,7 +1798,7 @@
         <v>1015</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G70" s="2">
         <v>3</v>
@@ -1815,7 +1815,7 @@
         <v>-1</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G71" s="2">
         <v>3</v>
@@ -1832,7 +1832,7 @@
         <v>1015</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="G72" s="2">
         <v>3</v>
@@ -1849,7 +1849,7 @@
         <v>1015</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G73" s="2">
         <v>3</v>
@@ -1866,7 +1866,7 @@
         <v>1016</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G75" s="2">
         <v>3</v>
@@ -1883,7 +1883,7 @@
         <v>-1</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G76" s="2">
         <v>3</v>
@@ -1900,7 +1900,7 @@
         <v>-1</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G77" s="2">
         <v>3</v>
@@ -1917,7 +1917,7 @@
         <v>1016</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G78" s="2">
         <v>3</v>
@@ -1934,7 +1934,7 @@
         <v>1016</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G79" s="2">
         <v>3</v>
@@ -1951,7 +1951,7 @@
         <v>-1</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G80" s="2">
         <v>3</v>
@@ -1968,7 +1968,7 @@
         <v>1017</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G82" s="2">
         <v>3</v>
@@ -1985,7 +1985,7 @@
         <v>1018</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G83" s="2">
         <v>3</v>
@@ -2002,7 +2002,7 @@
         <v>1017</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G84" s="2">
         <v>3</v>
@@ -2019,7 +2019,7 @@
         <v>1017</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G85" s="2">
         <v>3</v>
@@ -2036,7 +2036,7 @@
         <v>1019</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G86" s="2">
         <v>3</v>
@@ -2053,7 +2053,7 @@
         <v>1018</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G87" s="2">
         <v>3</v>
@@ -2070,7 +2070,7 @@
         <v>-1</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="G89" s="2">
         <v>3</v>
@@ -2087,7 +2087,7 @@
         <v>-1</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="G90" s="2">
         <v>3</v>
@@ -2104,7 +2104,7 @@
         <v>1020</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="G91" s="2">
         <v>3</v>
@@ -2121,7 +2121,7 @@
         <v>1020</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="G92" s="2">
         <v>3</v>

--- a/Excel/DialogConfig.xlsx
+++ b/Excel/DialogConfig.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97B9D594-41C9-4A9F-B244-55A5B2A1F1FE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29D5CB00-4A81-43FC-920F-A3B54C472F7D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="480" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dialog" sheetId="1" r:id="rId1"/>
@@ -153,10 +153,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>（看来得有些什么吃的诱引它才行）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>老李，看你这步棋要咋走嘛。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -366,6 +362,10 @@
   </si>
   <si>
     <t>囝囝真懂事，婶不累</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（看来得有些什么&lt;color=#de5449&gt;吃的诱引它&lt;/color&gt;才行）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -779,28 +779,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F77" sqref="F77"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="22.625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="25.125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="80.375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="21.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.77734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="22.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="25.109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="80.33203125" style="2" customWidth="1"/>
     <col min="7" max="7" width="9" style="2"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="14.25" x14ac:dyDescent="0.3">
       <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
@@ -817,7 +817,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="14.25" x14ac:dyDescent="0.3">
       <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
@@ -834,7 +834,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="14.25" x14ac:dyDescent="0.3">
       <c r="C5" s="3" t="s">
         <v>0</v>
       </c>
@@ -851,7 +851,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C6" s="2">
         <v>2001</v>
       </c>
@@ -868,7 +868,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="14.25" x14ac:dyDescent="0.3">
       <c r="C7" s="2">
         <v>2002</v>
       </c>
@@ -885,7 +885,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="14.25" x14ac:dyDescent="0.3">
       <c r="C8" s="2">
         <v>2003</v>
       </c>
@@ -902,7 +902,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="14.25" x14ac:dyDescent="0.3">
       <c r="C9" s="2">
         <v>2004</v>
       </c>
@@ -920,7 +920,7 @@
       </c>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="14.25" x14ac:dyDescent="0.3">
       <c r="C10" s="2">
         <v>2005</v>
       </c>
@@ -937,7 +937,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="14.25" x14ac:dyDescent="0.3">
       <c r="C12" s="2">
         <v>2010</v>
       </c>
@@ -954,7 +954,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="14.25" x14ac:dyDescent="0.3">
       <c r="C13" s="2">
         <v>2011</v>
       </c>
@@ -971,7 +971,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="14.25" x14ac:dyDescent="0.3">
       <c r="C14" s="2">
         <v>2012</v>
       </c>
@@ -988,7 +988,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="14.25" x14ac:dyDescent="0.3">
       <c r="C15" s="2">
         <v>2013</v>
       </c>
@@ -1005,7 +1005,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="14.25" x14ac:dyDescent="0.3">
       <c r="C16" s="2">
         <v>2014</v>
       </c>
@@ -1022,7 +1022,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:7" ht="14.25" x14ac:dyDescent="0.3">
       <c r="C18" s="2">
         <v>2020</v>
       </c>
@@ -1039,7 +1039,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:7" ht="14.25" x14ac:dyDescent="0.3">
       <c r="C19" s="2">
         <v>2021</v>
       </c>
@@ -1056,7 +1056,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:7" ht="14.25" x14ac:dyDescent="0.3">
       <c r="C20" s="2">
         <v>2022</v>
       </c>
@@ -1073,7 +1073,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:7" ht="14.25" x14ac:dyDescent="0.3">
       <c r="C21" s="2">
         <v>2023</v>
       </c>
@@ -1090,7 +1090,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:7" ht="14.25" x14ac:dyDescent="0.3">
       <c r="C23" s="2">
         <v>2030</v>
       </c>
@@ -1107,7 +1107,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:7" ht="14.25" x14ac:dyDescent="0.3">
       <c r="C24" s="2">
         <v>2031</v>
       </c>
@@ -1124,7 +1124,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:7" ht="14.25" x14ac:dyDescent="0.3">
       <c r="C25" s="2">
         <v>2032</v>
       </c>
@@ -1141,7 +1141,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:7" ht="14.25" x14ac:dyDescent="0.3">
       <c r="C26" s="2">
         <v>2033</v>
       </c>
@@ -1158,7 +1158,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:7" ht="14.25" x14ac:dyDescent="0.3">
       <c r="C27" s="2">
         <v>2034</v>
       </c>
@@ -1175,7 +1175,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:7" ht="14.25" x14ac:dyDescent="0.3">
       <c r="C28" s="2">
         <v>2035</v>
       </c>
@@ -1192,7 +1192,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:7" ht="14.25" x14ac:dyDescent="0.3">
       <c r="C29" s="2">
         <v>2036</v>
       </c>
@@ -1203,13 +1203,13 @@
         <v>-1</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>34</v>
+        <v>87</v>
       </c>
       <c r="G29" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:7" ht="14.25" x14ac:dyDescent="0.3">
       <c r="C31" s="2">
         <v>2040</v>
       </c>
@@ -1220,13 +1220,13 @@
         <v>1006</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G31" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:7" ht="14.25" x14ac:dyDescent="0.3">
       <c r="C32" s="2">
         <v>2041</v>
       </c>
@@ -1237,13 +1237,13 @@
         <v>1007</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G32" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:7" ht="14.25" x14ac:dyDescent="0.3">
       <c r="C33" s="2">
         <v>2042</v>
       </c>
@@ -1254,13 +1254,13 @@
         <v>1008</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G33" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:7" ht="14.25" x14ac:dyDescent="0.3">
       <c r="C34" s="2">
         <v>2043</v>
       </c>
@@ -1271,13 +1271,13 @@
         <v>1008</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G34" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:7" ht="14.25" x14ac:dyDescent="0.3">
       <c r="C35" s="2">
         <v>2044</v>
       </c>
@@ -1288,13 +1288,13 @@
         <v>1006</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G35" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:7" ht="14.25" x14ac:dyDescent="0.3">
       <c r="C36" s="2">
         <v>2045</v>
       </c>
@@ -1305,13 +1305,13 @@
         <v>1006</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G36" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:7" ht="14.25" x14ac:dyDescent="0.3">
       <c r="C37" s="2">
         <v>2046</v>
       </c>
@@ -1322,13 +1322,13 @@
         <v>1006</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G37" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:7" ht="14.25" x14ac:dyDescent="0.3">
       <c r="C38" s="2">
         <v>2047</v>
       </c>
@@ -1339,13 +1339,13 @@
         <v>-1</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G38" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:7" ht="14.25" x14ac:dyDescent="0.3">
       <c r="C39" s="2">
         <v>2048</v>
       </c>
@@ -1356,13 +1356,13 @@
         <v>1007</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G39" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:7" ht="14.25" x14ac:dyDescent="0.3">
       <c r="C41" s="2">
         <v>2050</v>
       </c>
@@ -1373,13 +1373,13 @@
         <v>1009</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G41" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:7" ht="14.25" x14ac:dyDescent="0.3">
       <c r="C42" s="2">
         <v>2051</v>
       </c>
@@ -1390,13 +1390,13 @@
         <v>1010</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G42" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:7" ht="14.25" x14ac:dyDescent="0.3">
       <c r="C43" s="2">
         <v>2052</v>
       </c>
@@ -1407,13 +1407,13 @@
         <v>1010</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G43" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:7" ht="14.25" x14ac:dyDescent="0.3">
       <c r="C44" s="2">
         <v>2053</v>
       </c>
@@ -1424,13 +1424,13 @@
         <v>1009</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G44" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:7" ht="14.25" x14ac:dyDescent="0.3">
       <c r="C45" s="2">
         <v>2054</v>
       </c>
@@ -1441,13 +1441,13 @@
         <v>1009</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G45" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:7" ht="14.25" x14ac:dyDescent="0.3">
       <c r="C46" s="2">
         <v>2055</v>
       </c>
@@ -1458,13 +1458,13 @@
         <v>1011</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G46" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:7" ht="14.25" x14ac:dyDescent="0.3">
       <c r="C47" s="2">
         <v>2056</v>
       </c>
@@ -1475,13 +1475,13 @@
         <v>1011</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G47" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" ht="14.25" x14ac:dyDescent="0.3">
       <c r="C49" s="2">
         <v>2060</v>
       </c>
@@ -1492,13 +1492,13 @@
         <v>1012</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G49" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" ht="14.25" x14ac:dyDescent="0.3">
       <c r="C50" s="2">
         <v>2061</v>
       </c>
@@ -1509,13 +1509,13 @@
         <v>-1</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G50" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" ht="14.25" x14ac:dyDescent="0.3">
       <c r="C51" s="2">
         <v>2062</v>
       </c>
@@ -1526,13 +1526,13 @@
         <v>1012</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G51" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" ht="14.25" x14ac:dyDescent="0.3">
       <c r="C52" s="2">
         <v>2063</v>
       </c>
@@ -1543,13 +1543,13 @@
         <v>1012</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G52" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" ht="14.25" x14ac:dyDescent="0.3">
       <c r="C53" s="2">
         <v>2064</v>
       </c>
@@ -1560,13 +1560,13 @@
         <v>-1</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G53" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" ht="14.25" x14ac:dyDescent="0.3">
       <c r="C55" s="2">
         <v>2070</v>
       </c>
@@ -1577,13 +1577,13 @@
         <v>-1</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G55" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" ht="14.25" x14ac:dyDescent="0.3">
       <c r="C56" s="2">
         <v>2071</v>
       </c>
@@ -1594,13 +1594,13 @@
         <v>-1</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G56" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" ht="14.25" x14ac:dyDescent="0.3">
       <c r="C57" s="2">
         <v>2072</v>
       </c>
@@ -1611,13 +1611,13 @@
         <v>1014</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G57" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" ht="14.25" x14ac:dyDescent="0.3">
       <c r="C58" s="2">
         <v>2073</v>
       </c>
@@ -1628,13 +1628,13 @@
         <v>-1</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G58" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" ht="14.25" x14ac:dyDescent="0.3">
       <c r="C59" s="2">
         <v>2074</v>
       </c>
@@ -1645,13 +1645,13 @@
         <v>-1</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G59" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" ht="14.25" x14ac:dyDescent="0.3">
       <c r="C60" s="2">
         <v>2075</v>
       </c>
@@ -1662,13 +1662,13 @@
         <v>1014</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G60" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" ht="14.25" x14ac:dyDescent="0.3">
       <c r="C61" s="2">
         <v>2076</v>
       </c>
@@ -1679,13 +1679,13 @@
         <v>-1</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G61" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" ht="14.25" x14ac:dyDescent="0.3">
       <c r="C62" s="2">
         <v>2077</v>
       </c>
@@ -1696,13 +1696,13 @@
         <v>1014</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G62" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" ht="14.25" x14ac:dyDescent="0.3">
       <c r="C63" s="2">
         <v>2078</v>
       </c>
@@ -1713,13 +1713,13 @@
         <v>-1</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G63" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:7" ht="14.25" x14ac:dyDescent="0.3">
       <c r="C65" s="2">
         <v>2080</v>
       </c>
@@ -1730,13 +1730,13 @@
         <v>1013</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G65" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:7" ht="14.25" x14ac:dyDescent="0.3">
       <c r="C66" s="2">
         <v>2081</v>
       </c>
@@ -1747,13 +1747,13 @@
         <v>1013</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G66" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:7" ht="14.25" x14ac:dyDescent="0.3">
       <c r="C67" s="2">
         <v>2082</v>
       </c>
@@ -1764,13 +1764,13 @@
         <v>1013</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G67" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="3:7" ht="14.25" x14ac:dyDescent="0.3">
       <c r="C69" s="2">
         <v>2090</v>
       </c>
@@ -1781,13 +1781,13 @@
         <v>-1</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G69" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="3:7" ht="14.25" x14ac:dyDescent="0.3">
       <c r="C70" s="2">
         <v>2091</v>
       </c>
@@ -1798,13 +1798,13 @@
         <v>1015</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G70" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="3:7" ht="14.25" x14ac:dyDescent="0.3">
       <c r="C71" s="2">
         <v>2092</v>
       </c>
@@ -1815,13 +1815,13 @@
         <v>-1</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G71" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="3:7" ht="14.25" x14ac:dyDescent="0.3">
       <c r="C72" s="2">
         <v>2093</v>
       </c>
@@ -1832,13 +1832,13 @@
         <v>1015</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G72" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="3:7" ht="14.25" x14ac:dyDescent="0.3">
       <c r="C73" s="2">
         <v>2094</v>
       </c>
@@ -1849,13 +1849,13 @@
         <v>1015</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G73" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="3:7" ht="14.25" x14ac:dyDescent="0.3">
       <c r="C75" s="2">
         <v>2100</v>
       </c>
@@ -1866,13 +1866,13 @@
         <v>1016</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G75" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="3:7" ht="14.25" x14ac:dyDescent="0.3">
       <c r="C76" s="2">
         <v>2101</v>
       </c>
@@ -1883,13 +1883,13 @@
         <v>-1</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G76" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="3:7" ht="14.25" x14ac:dyDescent="0.3">
       <c r="C77" s="2">
         <v>2102</v>
       </c>
@@ -1900,13 +1900,13 @@
         <v>-1</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G77" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="3:7" ht="14.25" x14ac:dyDescent="0.3">
       <c r="C78" s="2">
         <v>2103</v>
       </c>
@@ -1917,7 +1917,7 @@
         <v>1016</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G78" s="2">
         <v>3</v>
@@ -1934,7 +1934,7 @@
         <v>1016</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G79" s="2">
         <v>3</v>
@@ -1951,7 +1951,7 @@
         <v>-1</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G80" s="2">
         <v>3</v>
@@ -1968,7 +1968,7 @@
         <v>1017</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G82" s="2">
         <v>3</v>
@@ -1985,7 +1985,7 @@
         <v>1018</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G83" s="2">
         <v>3</v>
@@ -2002,7 +2002,7 @@
         <v>1017</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G84" s="2">
         <v>3</v>
@@ -2019,7 +2019,7 @@
         <v>1017</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G85" s="2">
         <v>3</v>
@@ -2036,7 +2036,7 @@
         <v>1019</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G86" s="2">
         <v>3</v>
@@ -2053,7 +2053,7 @@
         <v>1018</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G87" s="2">
         <v>3</v>
@@ -2070,7 +2070,7 @@
         <v>-1</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G89" s="2">
         <v>3</v>
@@ -2087,7 +2087,7 @@
         <v>-1</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G90" s="2">
         <v>3</v>
@@ -2104,7 +2104,7 @@
         <v>1020</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G91" s="2">
         <v>3</v>
@@ -2121,7 +2121,7 @@
         <v>1020</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G92" s="2">
         <v>3</v>
